--- a/549295.xlsx
+++ b/549295.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62DF6986-9041-C148-8FA1-4D4A2C11864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE47F82-FC7A-194E-9F21-04C1D2F31E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="2240" windowWidth="27440" windowHeight="16300" xr2:uid="{BB14DC5A-3B19-6543-A797-6ABD09EBD915}"/>
+    <workbookView xWindow="2800" yWindow="1980" windowWidth="27440" windowHeight="16300" xr2:uid="{BB14DC5A-3B19-6543-A797-6ABD09EBD915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>Accuracy(549295)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+lag1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,29 +201,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,119 +539,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA35ABA-DAED-4649-A5E1-C189A447129F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>-176.20041482439299</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>79.4207260187288</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>69.770022320040496</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>69.779661556946493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
         <v>-77.956117475336399</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
         <v>69.770022320040496</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
         <v>88.022275807725705</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
         <v>80.565575074929399</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:3" ht="17" thickBot="1">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="7">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
         <v>85.533643393853893</v>
       </c>
     </row>

--- a/549295.xlsx
+++ b/549295.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE47F82-FC7A-194E-9F21-04C1D2F31E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FF4563-5ECB-D840-9F60-97744A478C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1980" windowWidth="27440" windowHeight="16300" xr2:uid="{BB14DC5A-3B19-6543-A797-6ABD09EBD915}"/>
+    <workbookView xWindow="15360" yWindow="2580" windowWidth="18900" windowHeight="16300" xr2:uid="{BB14DC5A-3B19-6543-A797-6ABD09EBD915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>Lasso Regression+normalization+lag1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+lag1+PCA(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,15 +543,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA35ABA-DAED-4649-A5E1-C189A447129F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
-        <v>-77.956117475336399</v>
+        <v>73.409172663976904</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>69.770022320040496</v>
+        <v>-77.956117475336399</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -638,10 +642,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>88.022275807725705</v>
+        <v>69.770022320040496</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,20 +653,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>88.022275807725705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>80.565575074929399</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1">
-      <c r="A11" s="5">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>85.533643393853893</v>
       </c>
     </row>

--- a/549295.xlsx
+++ b/549295.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FF4563-5ECB-D840-9F60-97744A478C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D6E2DA-7971-7E4D-BB82-6035AB9CE65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="2580" windowWidth="18900" windowHeight="16300" xr2:uid="{BB14DC5A-3B19-6543-A797-6ABD09EBD915}"/>
+    <workbookView xWindow="6440" yWindow="1960" windowWidth="18900" windowHeight="16300" xr2:uid="{BB14DC5A-3B19-6543-A797-6ABD09EBD915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -579,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>-176.20041482439299</v>
+        <v>-172.354577427518</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -623,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="3">
-        <v>73.409172663976904</v>
+        <v>75.625968424842398</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>69.770022320040496</v>
+        <v>66.5107695914093</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -656,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>88.022275807725705</v>
+        <v>88.329189932518304</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>80.565575074929399</v>
+        <v>84.016662136192295</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
@@ -678,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="5">
-        <v>85.533643393853893</v>
+        <v>86.770905935039295</v>
       </c>
     </row>
   </sheetData>

--- a/549295.xlsx
+++ b/549295.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D6E2DA-7971-7E4D-BB82-6035AB9CE65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC570F-72BB-8649-AB2F-3523EFA6C8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="1960" windowWidth="18900" windowHeight="16300" xr2:uid="{BB14DC5A-3B19-6543-A797-6ABD09EBD915}"/>
+    <workbookView xWindow="11340" yWindow="3220" windowWidth="18900" windowHeight="16300" xr2:uid="{BB14DC5A-3B19-6543-A797-6ABD09EBD915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>Lasso Regression+normalization+lag1+PCA(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Tree Regression+Feature Selection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA35ABA-DAED-4649-A5E1-C189A447129F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -667,17 +671,28 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>84.016662136192295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1">
-      <c r="A12" s="5">
+        <v>81.049431756350501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>81.739564185612196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="5">
         <v>86.770905935039295</v>
       </c>
     </row>

--- a/549295.xlsx
+++ b/549295.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC570F-72BB-8649-AB2F-3523EFA6C8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409C16D3-C6E2-FB4E-87C8-1F490DAEBC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="3220" windowWidth="18900" windowHeight="16300" xr2:uid="{BB14DC5A-3B19-6543-A797-6ABD09EBD915}"/>
+    <workbookView xWindow="5700" yWindow="4860" windowWidth="18900" windowHeight="16300" xr2:uid="{BB14DC5A-3B19-6543-A797-6ABD09EBD915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>Decision Tree Regression+Feature Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear Regression+ PCA(26)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +115,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +237,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -547,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA35ABA-DAED-4649-A5E1-C189A447129F}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -560,20 +575,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -591,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>79.4207260187288</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="7">
+        <v>84.424648255945002</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -602,10 +617,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>69.770022320040496</v>
+        <v>79.4207260187288</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -613,10 +628,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>69.779661556946493</v>
+        <v>69.770022320040496</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -624,10 +639,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>75.625968424842398</v>
+        <v>69.779661556946493</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -635,10 +650,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>-77.956117475336399</v>
+        <v>75.625968424842398</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -646,10 +661,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>66.5107695914093</v>
+        <v>-77.956117475336399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -657,10 +672,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>88.329189932518304</v>
+        <v>66.5107695914093</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -668,31 +683,42 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>81.049431756350501</v>
+        <v>88.329189932518304</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>81.049431756350501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>81.739564185612196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" thickBot="1">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3">
-        <v>81.739564185612196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="C14" s="5">
         <v>86.770905935039295</v>
       </c>
     </row>
